--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -505,28 +505,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7040525954281446</v>
+        <v>0.9</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3703090685638367</v>
+        <v>0.697479859256364</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9392675159235669</v>
+        <v>0.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5474762393070087</v>
+        <v>0.05</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2731884315794977</v>
+        <v>0.3093041129884826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3390730242766237</v>
+        <v>0.2800331491981821</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3658057476882536</v>
+        <v>0.3141256188479021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4227285426705187</v>
+        <v>0.4880029127833885</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4693086379782301</v>
+        <v>0.3973722394916034</v>
       </c>
     </row>
     <row r="4">
@@ -582,34 +582,34 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6280510695584187</v>
+        <v>0.07582705485558079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1264863923693647</v>
+        <v>0.5217338311257028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1172367443606414</v>
+        <v>0.2225205384249242</v>
       </c>
       <c r="K4" t="n">
-        <v>0.339701000962134</v>
+        <v>0.7855292728962431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1386557240663109</v>
+        <v>0.09931467369611091</v>
       </c>
     </row>
     <row r="5">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.133868035500548</v>
+        <v>0.04381625982075759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2166082787448108</v>
+        <v>0.09322277027543979</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2214982839876567</v>
+        <v>0.2583155337928588</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7303327617842517</v>
+        <v>0.7870979738756236</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4742093532593084</v>
+        <v>0.3543500275672464</v>
       </c>
     </row>
   </sheetData>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.875</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.717948717948718</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6187050359712231</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5448717948717948</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5447088395475493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5356190476190476</v>
+        <v>0.5073932694985327</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7206477732793523</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7230075187969924</v>
+        <v>0.5851166998382864</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.75</v>
+        <v>0.6198830409356726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6257309941520467</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7533333333333334</v>
+        <v>0.6046783625730994</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Новые предсказания" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Метрики модели" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Распределение классов" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Новые предсказания" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Метрики модели" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Распределение классов" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,16 +517,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0.697479859256364</v>
+        <v>0.7112613718614061</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3093041129884826</v>
+        <v>0.3088358855637335</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2800331491981821</v>
+        <v>0.2840705879072046</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3141256188479021</v>
+        <v>0.3193095835375926</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4880029127833885</v>
+        <v>0.4854854445786487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3973722394916034</v>
+        <v>0.4112494061180063</v>
       </c>
     </row>
     <row r="4">
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07582705485558079</v>
+        <v>0.07540521215187723</v>
       </c>
       <c r="I4" t="n">
         <v>0.5217338311257028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2225205384249242</v>
+        <v>0.2340680834880368</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7855292728962431</v>
+        <v>0.7742918682231091</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09931467369611091</v>
+        <v>0.08722917768250771</v>
       </c>
     </row>
     <row r="5">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04381625982075759</v>
+        <v>0.0438162598207576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09322277027543979</v>
+        <v>0.09322277027543978</v>
       </c>
       <c r="J5" t="n">
         <v>0.2583155337928588</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7870979738756236</v>
+        <v>0.7870979738756239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3543500275672464</v>
+        <v>0.3543500275672465</v>
       </c>
     </row>
   </sheetData>
